--- a/api_comment_everyday.xlsx
+++ b/api_comment_everyday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
   <si>
     <t>customer_name *</t>
   </si>
@@ -283,6 +283,24 @@
   </si>
   <si>
     <t>kiểm tra id_business cho từng api</t>
+  </si>
+  <si>
+    <t>BUG : ANDROID - API</t>
+  </si>
+  <si>
+    <t>lúc order bàn eat-in, thỉnh thoảng bị vấn đề insert sai floor_title hoặc table_title, dẫn đến bàn được mở, nhưng không hiển thị được đơn hàng tại bàn (full) đó (do thuật toán so sánh chuỗi - API, nên đơn hàng chỉ hiển thị khi floor_title và table_title phải insert đúng), nhưng vì bàn đang full nên không thể order một đơn khác,đồng thời, do insert sai floor_title hoặc table_title nên bên bếp hiển thị không đúng đơn hàng.</t>
+  </si>
+  <si>
+    <t>LỖI CÓ THỂ XẢY RA Ở</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>order_employee - create</t>
+  </si>
+  <si>
+    <t>ANDROID</t>
   </si>
 </sst>
 </file>
@@ -358,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -371,6 +389,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -383,7 +405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,41 +723,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1110,46 +1131,46 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
@@ -1163,7 +1184,7 @@
       <c r="C92" t="s">
         <v>71</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E92" t="s">
@@ -1174,13 +1195,13 @@
       <c r="C93" t="s">
         <v>72</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="8" t="s">
         <v>73</v>
       </c>
       <c r="E93" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="11" t="s">
+      <c r="F93" s="8" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1248,14 +1269,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
+    <row r="105" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1264,10 +1285,40 @@
         <v>86</v>
       </c>
     </row>
+    <row r="110" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>90</v>
+      </c>
+      <c r="C113" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C7"/>
     <mergeCell ref="A85:F89"/>
+    <mergeCell ref="B110:E110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
